--- a/data/2023-7/mvp_china.xlsx
+++ b/data/2023-7/mvp_china.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\playground\mvpspider\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\playground\mvpspider\data\2023-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D1F162-63FA-4CC8-A46C-30EB8C3DD27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454EA297-F6F6-4C40-8DE2-56042EF3EBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3945" yWindow="3330" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MVPs" sheetId="1" r:id="rId1"/>
@@ -1393,9 +1393,6 @@
     <t>bfyxzls@outlook.com</t>
   </si>
   <si>
-    <t>https://mvp.microsoft.com/en-us/PublicProfile/5004445?fullName=Zhenfan%20Yan</t>
-  </si>
-  <si>
     <t>https://mvp.microsoft.com/en-us/PublicProfile/Photo/5004445</t>
   </si>
   <si>
@@ -2404,6 +2401,10 @@
   </si>
   <si>
     <t>https://mvp.microsoft.com/en-us/PublicProfile/5004941?fullName=JinHua%20%20Yan%28%20%E9%97%AB%E9%A9%9A%E9%8F%B5%20%20%29%20%20%20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mvp.microsoft.com/en-us/PublicProfile/5004445?fullName=Zhenfan%20Yan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2784,8 +2785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2875,7 +2876,7 @@
         <v>169</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I3" t="s">
         <v>168</v>
@@ -2898,7 +2899,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I4" t="s">
         <v>219</v>
@@ -2927,7 +2928,7 @@
         <v>227</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I5" t="s">
         <v>226</v>
@@ -2959,7 +2960,7 @@
         <v>269</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I6" t="s">
         <v>268</v>
@@ -2985,7 +2986,7 @@
         <v>295</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I7" t="s">
         <v>292</v>
@@ -3017,7 +3018,7 @@
         <v>297</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I8" t="s">
         <v>296</v>
@@ -3043,7 +3044,7 @@
         <v>371</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I9" t="s">
         <v>369</v>
@@ -3072,7 +3073,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I10" t="s">
         <v>372</v>
@@ -3098,7 +3099,7 @@
         <v>389</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I11" t="s">
         <v>388</v>
@@ -3127,7 +3128,7 @@
         <v>19</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I12" t="s">
         <v>399</v>
@@ -3153,7 +3154,7 @@
         <v>414</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I13" t="s">
         <v>413</v>
@@ -3179,7 +3180,7 @@
         <v>442</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I14" t="s">
         <v>441</v>
@@ -3187,10 +3188,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D15" t="s">
         <v>110</v>
@@ -3199,16 +3200,16 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K15" t="s">
         <v>93</v>
@@ -3216,13 +3217,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>669</v>
+      </c>
+      <c r="B16" t="s">
         <v>670</v>
       </c>
-      <c r="B16" t="s">
-        <v>671</v>
-      </c>
       <c r="C16" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D16" t="s">
         <v>110</v>
@@ -3234,10 +3235,10 @@
         <v>32</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I16" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -3260,7 +3261,7 @@
         <v>24</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I17" t="s">
         <v>23</v>
@@ -3271,10 +3272,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>737</v>
+      </c>
+      <c r="B18" t="s">
         <v>738</v>
-      </c>
-      <c r="B18" t="s">
-        <v>739</v>
       </c>
       <c r="C18" t="s">
         <v>60</v>
@@ -3292,7 +3293,7 @@
         <v>59</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I18" t="s">
         <v>58</v>
@@ -3318,7 +3319,7 @@
         <v>64</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I19" t="s">
         <v>63</v>
@@ -3350,7 +3351,7 @@
         <v>69</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I20" t="s">
         <v>68</v>
@@ -3376,7 +3377,7 @@
         <v>87</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I21" t="s">
         <v>86</v>
@@ -3396,7 +3397,7 @@
         <v>25</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I22" t="s">
         <v>173</v>
@@ -3428,7 +3429,7 @@
         <v>221</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I23" t="s">
         <v>220</v>
@@ -3457,7 +3458,7 @@
         <v>188</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I24" t="s">
         <v>238</v>
@@ -3480,7 +3481,7 @@
         <v>25</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I25" t="s">
         <v>285</v>
@@ -3509,7 +3510,7 @@
         <v>331</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I26" t="s">
         <v>330</v>
@@ -3535,7 +3536,7 @@
         <v>349</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I27" t="s">
         <v>348</v>
@@ -3561,7 +3562,7 @@
         <v>25</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I28" t="s">
         <v>396</v>
@@ -3590,7 +3591,7 @@
         <v>32</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I29" t="s">
         <v>403</v>
@@ -3622,7 +3623,7 @@
         <v>408</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I30" t="s">
         <v>407</v>
@@ -3651,7 +3652,7 @@
         <v>418</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I31" t="s">
         <v>417</v>
@@ -3682,10 +3683,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>740</v>
+      </c>
+      <c r="B33" t="s">
         <v>741</v>
-      </c>
-      <c r="B33" t="s">
-        <v>742</v>
       </c>
       <c r="C33" t="s">
         <v>197</v>
@@ -3697,16 +3698,16 @@
         <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G33" t="s">
         <v>47</v>
       </c>
       <c r="H33" t="s">
+        <v>460</v>
+      </c>
+      <c r="I33" t="s">
         <v>461</v>
-      </c>
-      <c r="I33" t="s">
-        <v>462</v>
       </c>
       <c r="K33" t="s">
         <v>183</v>
@@ -3714,10 +3715,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>479</v>
+      </c>
+      <c r="B34" t="s">
         <v>480</v>
-      </c>
-      <c r="B34" t="s">
-        <v>481</v>
       </c>
       <c r="C34" t="s">
         <v>197</v>
@@ -3732,10 +3733,10 @@
         <v>188</v>
       </c>
       <c r="H34" t="s">
+        <v>476</v>
+      </c>
+      <c r="I34" t="s">
         <v>477</v>
-      </c>
-      <c r="I34" t="s">
-        <v>478</v>
       </c>
       <c r="K34" t="s">
         <v>191</v>
@@ -3743,13 +3744,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>485</v>
+      </c>
+      <c r="B35" t="s">
         <v>486</v>
       </c>
-      <c r="B35" t="s">
-        <v>487</v>
-      </c>
       <c r="C35" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
@@ -3758,27 +3759,27 @@
         <v>25</v>
       </c>
       <c r="F35" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G35" t="s">
         <v>19</v>
       </c>
       <c r="H35" t="s">
+        <v>481</v>
+      </c>
+      <c r="I35" t="s">
         <v>482</v>
-      </c>
-      <c r="I35" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>631</v>
+      </c>
+      <c r="B36" t="s">
         <v>632</v>
       </c>
-      <c r="B36" t="s">
-        <v>633</v>
-      </c>
       <c r="C36" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
@@ -3787,10 +3788,10 @@
         <v>25</v>
       </c>
       <c r="H36" t="s">
+        <v>628</v>
+      </c>
+      <c r="I36" t="s">
         <v>629</v>
-      </c>
-      <c r="I36" t="s">
-        <v>630</v>
       </c>
       <c r="K36" t="s">
         <v>201</v>
@@ -3798,10 +3799,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C37" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D37" t="s">
         <v>26</v>
@@ -3810,16 +3811,16 @@
         <v>25</v>
       </c>
       <c r="F37" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G37" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I37" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K37" t="s">
         <v>207</v>
@@ -3827,13 +3828,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>659</v>
+      </c>
+      <c r="B38" t="s">
         <v>660</v>
       </c>
-      <c r="B38" t="s">
-        <v>661</v>
-      </c>
       <c r="C38" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
@@ -3842,16 +3843,16 @@
         <v>25</v>
       </c>
       <c r="F38" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G38" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H38" t="s">
+        <v>655</v>
+      </c>
+      <c r="I38" t="s">
         <v>656</v>
-      </c>
-      <c r="I38" t="s">
-        <v>657</v>
       </c>
       <c r="K38" t="s">
         <v>213</v>
@@ -3859,13 +3860,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>713</v>
+      </c>
+      <c r="B39" t="s">
         <v>714</v>
       </c>
-      <c r="B39" t="s">
-        <v>715</v>
-      </c>
       <c r="C39" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D39" t="s">
         <v>26</v>
@@ -3874,24 +3875,24 @@
         <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G39" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I39" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C40" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D40" t="s">
         <v>26</v>
@@ -3900,16 +3901,16 @@
         <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G40" t="s">
         <v>24</v>
       </c>
       <c r="H40" t="s">
+        <v>716</v>
+      </c>
+      <c r="I40" t="s">
         <v>717</v>
-      </c>
-      <c r="I40" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -4071,7 +4072,7 @@
         <v>24</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I46" t="s">
         <v>320</v>
@@ -4169,10 +4170,10 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>458</v>
+      </c>
+      <c r="B50" t="s">
         <v>459</v>
-      </c>
-      <c r="B50" t="s">
-        <v>460</v>
       </c>
       <c r="C50" t="s">
         <v>197</v>
@@ -4183,11 +4184,11 @@
       <c r="E50" t="s">
         <v>206</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="I50" t="s">
         <v>456</v>
-      </c>
-      <c r="I50" t="s">
-        <v>457</v>
       </c>
       <c r="K50" t="s">
         <v>275</v>
@@ -4195,13 +4196,13 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>547</v>
+      </c>
+      <c r="B51" t="s">
         <v>548</v>
       </c>
-      <c r="B51" t="s">
-        <v>549</v>
-      </c>
       <c r="C51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D51" t="s">
         <v>178</v>
@@ -4210,10 +4211,10 @@
         <v>206</v>
       </c>
       <c r="H51" t="s">
+        <v>544</v>
+      </c>
+      <c r="I51" t="s">
         <v>545</v>
-      </c>
-      <c r="I51" t="s">
-        <v>546</v>
       </c>
       <c r="K51" t="s">
         <v>281</v>
@@ -4221,13 +4222,13 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>560</v>
+      </c>
+      <c r="B52" t="s">
         <v>561</v>
       </c>
-      <c r="B52" t="s">
-        <v>562</v>
-      </c>
       <c r="C52" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D52" t="s">
         <v>178</v>
@@ -4236,24 +4237,24 @@
         <v>206</v>
       </c>
       <c r="F52" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G52" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H52" t="s">
+        <v>556</v>
+      </c>
+      <c r="I52" t="s">
         <v>557</v>
-      </c>
-      <c r="I52" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C53" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D53" t="s">
         <v>178</v>
@@ -4262,21 +4263,21 @@
         <v>206</v>
       </c>
       <c r="H53" t="s">
+        <v>644</v>
+      </c>
+      <c r="I53" t="s">
         <v>645</v>
-      </c>
-      <c r="I53" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>729</v>
+      </c>
+      <c r="B54" t="s">
         <v>730</v>
       </c>
-      <c r="B54" t="s">
-        <v>731</v>
-      </c>
       <c r="C54" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D54" t="s">
         <v>178</v>
@@ -4285,16 +4286,16 @@
         <v>206</v>
       </c>
       <c r="F54" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G54" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H54" t="s">
+        <v>726</v>
+      </c>
+      <c r="I54" t="s">
         <v>727</v>
-      </c>
-      <c r="I54" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -4696,13 +4697,13 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>493</v>
+      </c>
+      <c r="B69" t="s">
         <v>494</v>
       </c>
-      <c r="B69" t="s">
-        <v>495</v>
-      </c>
       <c r="C69" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D69" t="s">
         <v>34</v>
@@ -4711,27 +4712,27 @@
         <v>33</v>
       </c>
       <c r="F69" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G69" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H69" t="s">
+        <v>488</v>
+      </c>
+      <c r="I69" t="s">
         <v>489</v>
-      </c>
-      <c r="I69" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>597</v>
+      </c>
+      <c r="B70" t="s">
         <v>598</v>
       </c>
-      <c r="B70" t="s">
-        <v>599</v>
-      </c>
       <c r="C70" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D70" t="s">
         <v>34</v>
@@ -4740,13 +4741,13 @@
         <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H70" t="s">
+        <v>595</v>
+      </c>
+      <c r="I70" t="s">
         <v>596</v>
-      </c>
-      <c r="I70" t="s">
-        <v>597</v>
       </c>
       <c r="K70" t="s">
         <v>373</v>
@@ -4754,13 +4755,13 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>652</v>
+      </c>
+      <c r="B71" t="s">
         <v>653</v>
       </c>
-      <c r="B71" t="s">
-        <v>654</v>
-      </c>
       <c r="C71" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D71" t="s">
         <v>34</v>
@@ -4769,27 +4770,27 @@
         <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G71" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H71" t="s">
+        <v>648</v>
+      </c>
+      <c r="I71" t="s">
         <v>649</v>
-      </c>
-      <c r="I71" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>680</v>
+      </c>
+      <c r="B72" t="s">
         <v>681</v>
       </c>
-      <c r="B72" t="s">
-        <v>682</v>
-      </c>
       <c r="C72" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D72" t="s">
         <v>34</v>
@@ -4798,13 +4799,13 @@
         <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H72" t="s">
+        <v>677</v>
+      </c>
+      <c r="I72" t="s">
         <v>678</v>
-      </c>
-      <c r="I72" t="s">
-        <v>679</v>
       </c>
       <c r="K72" t="s">
         <v>384</v>
@@ -4812,10 +4813,10 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C73" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D73" t="s">
         <v>34</v>
@@ -4824,10 +4825,10 @@
         <v>33</v>
       </c>
       <c r="H73" t="s">
+        <v>706</v>
+      </c>
+      <c r="I73" t="s">
         <v>707</v>
-      </c>
-      <c r="I73" t="s">
-        <v>708</v>
       </c>
       <c r="K73" t="s">
         <v>390</v>
@@ -4887,10 +4888,10 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C76" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D76" t="s">
         <v>152</v>
@@ -4899,13 +4900,13 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H76" t="s">
+        <v>577</v>
+      </c>
+      <c r="I76" t="s">
         <v>578</v>
-      </c>
-      <c r="I76" t="s">
-        <v>579</v>
       </c>
       <c r="K76" t="s">
         <v>400</v>
@@ -5127,10 +5128,10 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>467</v>
+      </c>
+      <c r="B85" t="s">
         <v>468</v>
-      </c>
-      <c r="B85" t="s">
-        <v>469</v>
       </c>
       <c r="C85" t="s">
         <v>197</v>
@@ -5142,13 +5143,13 @@
         <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H85" t="s">
+        <v>464</v>
+      </c>
+      <c r="I85" t="s">
         <v>465</v>
-      </c>
-      <c r="I85" t="s">
-        <v>466</v>
       </c>
       <c r="K85" t="s">
         <v>443</v>
@@ -5156,10 +5157,10 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>473</v>
+      </c>
+      <c r="B86" t="s">
         <v>474</v>
-      </c>
-      <c r="B86" t="s">
-        <v>475</v>
       </c>
       <c r="C86" t="s">
         <v>197</v>
@@ -5171,27 +5172,27 @@
         <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G86" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H86" t="s">
+        <v>469</v>
+      </c>
+      <c r="I86" t="s">
         <v>470</v>
-      </c>
-      <c r="I86" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>566</v>
+      </c>
+      <c r="B87" t="s">
         <v>567</v>
       </c>
-      <c r="B87" t="s">
-        <v>568</v>
-      </c>
       <c r="C87" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D87" t="s">
         <v>14</v>
@@ -5200,10 +5201,10 @@
         <v>13</v>
       </c>
       <c r="H87" t="s">
+        <v>563</v>
+      </c>
+      <c r="I87" t="s">
         <v>564</v>
-      </c>
-      <c r="I87" t="s">
-        <v>565</v>
       </c>
       <c r="K87" t="s">
         <v>452</v>
@@ -5211,13 +5212,13 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>723</v>
+      </c>
+      <c r="B88" t="s">
         <v>724</v>
       </c>
-      <c r="B88" t="s">
-        <v>725</v>
-      </c>
       <c r="C88" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
@@ -5226,16 +5227,16 @@
         <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H88" t="s">
+        <v>720</v>
+      </c>
+      <c r="I88" t="s">
         <v>721</v>
       </c>
-      <c r="I88" t="s">
-        <v>722</v>
-      </c>
       <c r="K88" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
@@ -5258,7 +5259,7 @@
         <v>117</v>
       </c>
       <c r="K89" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -5313,7 +5314,7 @@
         <v>131</v>
       </c>
       <c r="K91" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -5345,7 +5346,7 @@
         <v>135</v>
       </c>
       <c r="K92" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -5371,7 +5372,7 @@
         <v>164</v>
       </c>
       <c r="K93" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
@@ -5403,7 +5404,7 @@
         <v>382</v>
       </c>
       <c r="K94" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
@@ -5432,7 +5433,7 @@
         <v>447</v>
       </c>
       <c r="K95" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -5464,18 +5465,18 @@
         <v>451</v>
       </c>
       <c r="K96" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>535</v>
+      </c>
+      <c r="B97" t="s">
         <v>536</v>
       </c>
-      <c r="B97" t="s">
-        <v>537</v>
-      </c>
       <c r="C97" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D97" t="s">
         <v>119</v>
@@ -5487,24 +5488,24 @@
         <v>24</v>
       </c>
       <c r="H97" t="s">
+        <v>532</v>
+      </c>
+      <c r="I97" t="s">
         <v>533</v>
       </c>
-      <c r="I97" t="s">
-        <v>534</v>
-      </c>
       <c r="K97" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>553</v>
+      </c>
+      <c r="B98" t="s">
         <v>554</v>
       </c>
-      <c r="B98" t="s">
-        <v>555</v>
-      </c>
       <c r="C98" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D98" t="s">
         <v>119</v>
@@ -5513,30 +5514,30 @@
         <v>13</v>
       </c>
       <c r="F98" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G98" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H98" t="s">
+        <v>549</v>
+      </c>
+      <c r="I98" t="s">
         <v>550</v>
       </c>
-      <c r="I98" t="s">
-        <v>551</v>
-      </c>
       <c r="K98" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>621</v>
+      </c>
+      <c r="B99" t="s">
         <v>622</v>
       </c>
-      <c r="B99" t="s">
-        <v>623</v>
-      </c>
       <c r="C99" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -5545,24 +5546,24 @@
         <v>13</v>
       </c>
       <c r="H99" t="s">
+        <v>618</v>
+      </c>
+      <c r="I99" t="s">
         <v>619</v>
       </c>
-      <c r="I99" t="s">
-        <v>620</v>
-      </c>
       <c r="K99" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>735</v>
+      </c>
+      <c r="B100" t="s">
         <v>736</v>
       </c>
-      <c r="B100" t="s">
-        <v>737</v>
-      </c>
       <c r="C100" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D100" t="s">
         <v>119</v>
@@ -5571,13 +5572,13 @@
         <v>33</v>
       </c>
       <c r="H100" t="s">
+        <v>732</v>
+      </c>
+      <c r="I100" t="s">
         <v>733</v>
       </c>
-      <c r="I100" t="s">
-        <v>734</v>
-      </c>
       <c r="K100" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -5585,7 +5586,7 @@
         <v>85</v>
       </c>
       <c r="B101" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C101" t="s">
         <v>60</v>
@@ -5632,7 +5633,7 @@
         <v>102</v>
       </c>
       <c r="K102" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
@@ -5655,7 +5656,7 @@
         <v>113</v>
       </c>
       <c r="K103" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -5678,18 +5679,18 @@
         <v>122</v>
       </c>
       <c r="K104" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>519</v>
+      </c>
+      <c r="B105" t="s">
         <v>520</v>
       </c>
-      <c r="B105" t="s">
-        <v>521</v>
-      </c>
       <c r="C105" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D105" t="s">
         <v>84</v>
@@ -5698,24 +5699,24 @@
         <v>83</v>
       </c>
       <c r="F105" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H105" t="s">
+        <v>516</v>
+      </c>
+      <c r="I105" t="s">
         <v>517</v>
       </c>
-      <c r="I105" t="s">
-        <v>518</v>
-      </c>
       <c r="K105" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C106" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D106" t="s">
         <v>84</v>
@@ -5724,13 +5725,13 @@
         <v>104</v>
       </c>
       <c r="H106" t="s">
+        <v>682</v>
+      </c>
+      <c r="I106" t="s">
         <v>683</v>
       </c>
-      <c r="I106" t="s">
-        <v>684</v>
-      </c>
       <c r="K106" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
@@ -5759,7 +5760,7 @@
         <v>157</v>
       </c>
       <c r="K107" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
@@ -5788,18 +5789,18 @@
         <v>264</v>
       </c>
       <c r="K108" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>575</v>
+      </c>
+      <c r="B109" t="s">
         <v>576</v>
       </c>
-      <c r="B109" t="s">
-        <v>577</v>
-      </c>
       <c r="C109" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D109" t="s">
         <v>158</v>
@@ -5808,10 +5809,10 @@
         <v>83</v>
       </c>
       <c r="H109" t="s">
+        <v>573</v>
+      </c>
+      <c r="I109" t="s">
         <v>574</v>
-      </c>
-      <c r="I109" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
@@ -5819,7 +5820,7 @@
         <v>120</v>
       </c>
       <c r="C110" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D110" t="s">
         <v>158</v>
@@ -5828,21 +5829,21 @@
         <v>76</v>
       </c>
       <c r="H110" t="s">
+        <v>607</v>
+      </c>
+      <c r="I110" t="s">
         <v>608</v>
       </c>
-      <c r="I110" t="s">
-        <v>609</v>
-      </c>
       <c r="K110" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C111" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D111" t="s">
         <v>158</v>
@@ -5851,24 +5852,24 @@
         <v>76</v>
       </c>
       <c r="H111" t="s">
+        <v>614</v>
+      </c>
+      <c r="I111" t="s">
         <v>615</v>
       </c>
-      <c r="I111" t="s">
-        <v>616</v>
-      </c>
       <c r="K111" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>664</v>
+      </c>
+      <c r="B112" t="s">
         <v>665</v>
       </c>
-      <c r="B112" t="s">
-        <v>666</v>
-      </c>
       <c r="C112" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D112" t="s">
         <v>158</v>
@@ -5877,16 +5878,16 @@
         <v>76</v>
       </c>
       <c r="F112" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H112" t="s">
+        <v>662</v>
+      </c>
+      <c r="I112" t="s">
         <v>663</v>
       </c>
-      <c r="I112" t="s">
-        <v>664</v>
-      </c>
       <c r="K112" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
@@ -5935,24 +5936,24 @@
         <v>92</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I114" t="s">
         <v>90</v>
       </c>
       <c r="K114" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B115" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C115" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D115" t="s">
         <v>77</v>
@@ -5961,24 +5962,24 @@
         <v>92</v>
       </c>
       <c r="F115" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G115" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H115" t="s">
+        <v>510</v>
+      </c>
+      <c r="I115" t="s">
         <v>511</v>
-      </c>
-      <c r="I115" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C116" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D116" t="s">
         <v>77</v>
@@ -5987,21 +5988,21 @@
         <v>92</v>
       </c>
       <c r="H116" t="s">
+        <v>529</v>
+      </c>
+      <c r="I116" t="s">
         <v>530</v>
       </c>
-      <c r="I116" t="s">
-        <v>531</v>
-      </c>
       <c r="K116" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C117" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D117" t="s">
         <v>77</v>
@@ -6013,24 +6014,24 @@
         <v>442</v>
       </c>
       <c r="H117" t="s">
+        <v>590</v>
+      </c>
+      <c r="I117" t="s">
         <v>591</v>
       </c>
-      <c r="I117" t="s">
-        <v>592</v>
-      </c>
       <c r="K117" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>688</v>
+      </c>
+      <c r="B118" t="s">
         <v>689</v>
       </c>
-      <c r="B118" t="s">
-        <v>690</v>
-      </c>
       <c r="C118" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D118" t="s">
         <v>77</v>
@@ -6039,13 +6040,13 @@
         <v>92</v>
       </c>
       <c r="H118" t="s">
+        <v>685</v>
+      </c>
+      <c r="I118" t="s">
         <v>686</v>
       </c>
-      <c r="I118" t="s">
-        <v>687</v>
-      </c>
       <c r="K118" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
@@ -6077,7 +6078,7 @@
         <v>187</v>
       </c>
       <c r="K119" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
@@ -6109,18 +6110,18 @@
         <v>287</v>
       </c>
       <c r="K120" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>674</v>
+      </c>
+      <c r="B121" t="s">
         <v>675</v>
       </c>
-      <c r="B121" t="s">
-        <v>676</v>
-      </c>
       <c r="C121" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D121" t="s">
         <v>190</v>
@@ -6129,30 +6130,30 @@
         <v>189</v>
       </c>
       <c r="F121" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G121" t="s">
         <v>19</v>
       </c>
       <c r="H121" t="s">
+        <v>671</v>
+      </c>
+      <c r="I121" t="s">
         <v>672</v>
       </c>
-      <c r="I121" t="s">
-        <v>673</v>
-      </c>
       <c r="K121" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C122" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D122" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E122" t="s">
         <v>252</v>
@@ -6161,71 +6162,71 @@
         <v>24</v>
       </c>
       <c r="H122" t="s">
+        <v>501</v>
+      </c>
+      <c r="I122" t="s">
         <v>502</v>
       </c>
-      <c r="I122" t="s">
-        <v>503</v>
-      </c>
       <c r="K122" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>527</v>
+      </c>
+      <c r="B123" t="s">
         <v>528</v>
       </c>
-      <c r="B123" t="s">
-        <v>529</v>
-      </c>
       <c r="C123" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D123" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E123" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G123" t="s">
         <v>19</v>
       </c>
       <c r="H123" t="s">
+        <v>522</v>
+      </c>
+      <c r="I123" t="s">
         <v>523</v>
       </c>
-      <c r="I123" t="s">
-        <v>524</v>
-      </c>
       <c r="K123" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>626</v>
+      </c>
+      <c r="B124" t="s">
         <v>627</v>
       </c>
-      <c r="B124" t="s">
-        <v>628</v>
-      </c>
       <c r="C124" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D124" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E124" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G124" t="s">
         <v>24</v>
       </c>
       <c r="H124" t="s">
+        <v>623</v>
+      </c>
+      <c r="I124" t="s">
         <v>624</v>
       </c>
-      <c r="I124" t="s">
-        <v>625</v>
-      </c>
       <c r="K124" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
@@ -6257,7 +6258,7 @@
         <v>39</v>
       </c>
       <c r="K125" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
@@ -6285,13 +6286,13 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B127" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C127" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D127" t="s">
         <v>41</v>
@@ -6300,27 +6301,27 @@
         <v>431</v>
       </c>
       <c r="F127" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H127" t="s">
+        <v>506</v>
+      </c>
+      <c r="I127" t="s">
         <v>507</v>
       </c>
-      <c r="I127" t="s">
-        <v>508</v>
-      </c>
       <c r="K127" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>637</v>
+      </c>
+      <c r="B128" t="s">
         <v>638</v>
       </c>
-      <c r="B128" t="s">
-        <v>639</v>
-      </c>
       <c r="C128" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D128" t="s">
         <v>41</v>
@@ -6329,36 +6330,36 @@
         <v>431</v>
       </c>
       <c r="G128" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H128" t="s">
+        <v>633</v>
+      </c>
+      <c r="I128" t="s">
         <v>634</v>
       </c>
-      <c r="I128" t="s">
-        <v>635</v>
-      </c>
       <c r="K128" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C129" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D129" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E129" t="s">
         <v>431</v>
       </c>
       <c r="H129" t="s">
+        <v>496</v>
+      </c>
+      <c r="I129" t="s">
         <v>497</v>
-      </c>
-      <c r="I129" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
@@ -6410,7 +6411,7 @@
         <v>303</v>
       </c>
       <c r="K131" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
@@ -6439,18 +6440,18 @@
         <v>315</v>
       </c>
       <c r="K132" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>571</v>
+      </c>
+      <c r="B133" t="s">
         <v>572</v>
       </c>
-      <c r="B133" t="s">
-        <v>573</v>
-      </c>
       <c r="C133" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D133" t="s">
         <v>253</v>
@@ -6459,24 +6460,24 @@
         <v>316</v>
       </c>
       <c r="H133" t="s">
+        <v>568</v>
+      </c>
+      <c r="I133" t="s">
         <v>569</v>
       </c>
-      <c r="I133" t="s">
-        <v>570</v>
-      </c>
       <c r="K133" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>703</v>
+      </c>
+      <c r="B134" t="s">
         <v>704</v>
       </c>
-      <c r="B134" t="s">
-        <v>705</v>
-      </c>
       <c r="C134" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D134" t="s">
         <v>253</v>
@@ -6485,100 +6486,100 @@
         <v>316</v>
       </c>
       <c r="F134" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G134" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H134" t="s">
+        <v>698</v>
+      </c>
+      <c r="I134" t="s">
         <v>699</v>
-      </c>
-      <c r="I134" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>696</v>
+      </c>
+      <c r="B135" t="s">
         <v>697</v>
       </c>
-      <c r="B135" t="s">
-        <v>698</v>
-      </c>
       <c r="C135" t="s">
+        <v>692</v>
+      </c>
+      <c r="D135" t="s">
+        <v>694</v>
+      </c>
+      <c r="E135" t="s">
         <v>693</v>
       </c>
-      <c r="D135" t="s">
-        <v>695</v>
-      </c>
-      <c r="E135" t="s">
-        <v>694</v>
-      </c>
       <c r="H135" t="s">
+        <v>690</v>
+      </c>
+      <c r="I135" t="s">
         <v>691</v>
       </c>
-      <c r="I135" t="s">
-        <v>692</v>
-      </c>
       <c r="K135" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>587</v>
+      </c>
+      <c r="B136" t="s">
         <v>588</v>
       </c>
-      <c r="B136" t="s">
-        <v>589</v>
-      </c>
       <c r="C136" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D136" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E136" t="s">
         <v>53</v>
       </c>
       <c r="F136" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G136" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H136" t="s">
+        <v>582</v>
+      </c>
+      <c r="I136" t="s">
         <v>583</v>
-      </c>
-      <c r="I136" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>605</v>
+      </c>
+      <c r="B137" t="s">
         <v>606</v>
       </c>
-      <c r="B137" t="s">
-        <v>607</v>
-      </c>
       <c r="C137" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D137" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E137" t="s">
         <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H137" t="s">
+        <v>600</v>
+      </c>
+      <c r="I137" t="s">
         <v>601</v>
       </c>
-      <c r="I137" t="s">
-        <v>602</v>
-      </c>
       <c r="K137" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
@@ -6598,39 +6599,39 @@
         <v>53</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I138" t="s">
         <v>51</v>
       </c>
       <c r="K138" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>542</v>
+      </c>
+      <c r="C139" t="s">
+        <v>491</v>
+      </c>
+      <c r="D139" t="s">
+        <v>540</v>
+      </c>
+      <c r="E139" t="s">
+        <v>539</v>
+      </c>
+      <c r="F139" t="s">
         <v>543</v>
       </c>
-      <c r="C139" t="s">
-        <v>492</v>
-      </c>
-      <c r="D139" t="s">
-        <v>541</v>
-      </c>
-      <c r="E139" t="s">
-        <v>540</v>
-      </c>
-      <c r="F139" t="s">
-        <v>544</v>
-      </c>
       <c r="H139" t="s">
+        <v>537</v>
+      </c>
+      <c r="I139" t="s">
         <v>538</v>
       </c>
-      <c r="I139" t="s">
-        <v>539</v>
-      </c>
       <c r="K139" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -6675,8 +6676,9 @@
     <hyperlink ref="H114" r:id="rId32" xr:uid="{47A2387E-3B48-406D-A076-106DE3F66009}"/>
     <hyperlink ref="H37" r:id="rId33" xr:uid="{280F8273-7E5D-4C30-BF1C-490F3EBDCC7A}"/>
     <hyperlink ref="H39" r:id="rId34" xr:uid="{AD1BC39F-428F-4E20-B0A0-5FAE4408DD58}"/>
+    <hyperlink ref="H50" r:id="rId35" xr:uid="{6241EBB5-F472-451F-9A5C-109DE8887DD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>